--- a/com.supermarket/src/main/resources/ExcelFiles/ProductData.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/ProductData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DeliveryBoy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -352,7 +352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -375,10 +375,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>9876543200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/com.supermarket/src/main/resources/ExcelFiles/ProductData.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/ProductData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MeatProducts</t>
+  </si>
+  <si>
+    <t>Tony</t>
   </si>
 </sst>
 </file>
@@ -356,9 +359,9 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -373,18 +376,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>9876543200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -398,7 +406,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
